--- a/result/Bilingual file (1).xlsx
+++ b/result/Bilingual file (1).xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
         <v>BITTE WÄHLEN SIE DIE DURCHWAHL 6 FÜR DEN SERVICE</v>
       </c>
       <c r="D2" t="str">
-        <v>No correction needed</v>
+        <v>No corrections needed.</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +441,7 @@
         <v>Bis 10.00 Uhr abgeholte Wäsche und Reinigung werden am nächsten Nachmittag zurückgebracht.</v>
       </c>
       <c r="D3" t="str">
-        <v>Inconsistency in subject-verb agreement - 'collected' should match with 'werden'</v>
+        <v>Plural agreement - 'werden' instead of 'wird'.</v>
       </c>
     </row>
     <row r="4">
@@ -452,10 +452,10 @@
         <v>Express-Service,</v>
       </c>
       <c r="C4" t="str">
-        <v>Express-Service</v>
+        <v>Express Service</v>
       </c>
       <c r="D4" t="str">
-        <v>No correction needed</v>
+        <v>Removed hyphen and converted to title case.</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>der vor 10.00 Uhr bestellt wird, wird noch am selben Tag zurückgebracht</v>
       </c>
       <c r="D5" t="str">
-        <v>Missing translation of 'returned' ('zurückgebracht') at the end of the sentence</v>
+        <v>Added 'zurückgebracht' at the end for clarity.</v>
       </c>
     </row>
     <row r="6">
@@ -480,10 +480,10 @@
         <v>nachmittags zurückgebracht.</v>
       </c>
       <c r="C6" t="str">
-        <v>am nächsten Nachmittag.</v>
+        <v>am Nachmittag zurückgebracht.</v>
       </c>
       <c r="D6" t="str">
-        <v>Inconsistency in translation - 'in the afternoon' should be translated as 'am nächsten Nachmittag' (on the next afternoon)</v>
+        <v>Adjusted to singular and capitalized 'Nachmittag'.</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         <v>Ein Bügelraum steht im 3. und 6. Stock hinter den Zimmern 334 und 634 zur Verfügung.</v>
       </c>
       <c r="D7" t="str">
-        <v>No correction needed</v>
+        <v>No corrections needed.</v>
       </c>
     </row>
     <row r="8">
@@ -508,10 +508,10 @@
         <v>Bitte füllen Sie die</v>
       </c>
       <c r="C8" t="str">
-        <v>Bitte füllen Sie die</v>
+        <v>Bitte füllen Sie</v>
       </c>
       <c r="D8" t="str">
-        <v>No correction needed</v>
+        <v>Removed 'die' for clarity.</v>
       </c>
     </row>
     <row r="9">
@@ -522,10 +522,10 @@
         <v>Wäscheliste aus, packen Sie die Wäsche in den Wäschesack und benachrichtigen Sie den Wäscheservice zur Abholung.</v>
       </c>
       <c r="C9" t="str">
-        <v>Wäscheliste ausfüllen, packen Sie die Wäsche in den Wäschesack und benachrichtigen Sie den Wäscheservice zur Abholung.</v>
+        <v>Wäscheliste ausfüllen, packen Sie die Wäsche zusammen mit den Kleidungsstücken in den Wäschesack und benachrichtigen Sie den Wäscheservice zur Abholung.</v>
       </c>
       <c r="D9" t="str">
-        <v>Missing translation of 'complete' ('ausfüllen') in context</v>
+        <v>Added 'auffüllen' to 'aus', added 'zusammen mit den Kleidungsstücken' for clarity.</v>
       </c>
     </row>
     <row r="10">
@@ -539,138 +539,124 @@
         <v>ALLGEMEINE GESCHÄFTSBEDINGUNGEN</v>
       </c>
       <c r="D10" t="str">
-        <v>No correction needed</v>
+        <v>No corrections needed.</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>LAUNDRY SERVICE IS NOT AVAILABLE ON SATURDAY</v>
+        <v>DER WÄSCHESERVICE STEHT AN SAMSTAGEN,</v>
       </c>
       <c r="B11" t="str">
-        <v>Der Wäscheservice ist samstags nicht verfügbar</v>
+        <v/>
       </c>
       <c r="C11" t="str">
-        <v>Der Wäscheservice ist samstags nicht verfügbar.</v>
+        <v/>
       </c>
       <c r="D11" t="str">
-        <v>Missing punctuation mark at the end of the sentence</v>
+        <v>No translation available</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>DER WÄSCHESERVICE STEHT AN SAMSTAGEN,</v>
+        <v>SUNDAY AND PUBLIC HOLIDAYS.</v>
       </c>
       <c r="B12" t="str">
-        <v/>
+        <v>SONN- UND FEIERTAGEN NICHT ZUR VERFÜGUNG.</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>SONNTAG UND AN FEIERTAGEN NICHT VERFÜGBAR.</v>
       </c>
       <c r="D12" t="str">
-        <v>No translation found</v>
+        <v>The translation was modified to improve clarity and remove the double space before 'AN'. Additionally, the word 'ZUR' was replaced with 'AN' to match the original meaning.</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>SUNDAY AND PUBLIC HOLIDAYS.</v>
+        <v>Please note that any claim for loss or damage is limited to ten times the cost of dry cleaning of the damaged item.</v>
       </c>
       <c r="B13" t="str">
-        <v/>
+        <v>Bitte beachten Sie, dass Ansprüche wegen Verlust oder Beschädigung auf das Zehnfache der Kosten für die chemische Reinigung des beschädigten Kleidungsstücks begrenzt sind.</v>
       </c>
       <c r="C13" t="str">
-        <v/>
+        <v>Bitte beachten Sie, dass Ansprüche wegen Verlust oder Beschädigung auf das Zehnfache der Kosten für die chemische Reinigung des beschädigten Artikels begrenzt sind.</v>
       </c>
       <c r="D13" t="str">
-        <v>No translation found</v>
+        <v>The translation was modified to replace 'Kleidungsstücks' (clothing piece) with 'Artikels' (item) to have a more general term that can include other items besides clothing.</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Please note that any claim for loss or damage is limited to ten times the cost of dry cleaning of the damaged item.</v>
+        <v>Any Claim should be made within 24hrs from day of return.</v>
       </c>
       <c r="B14" t="str">
-        <v>Bitte beachten Sie, dass Ansprüche wegen Verlust oder Beschädigung auf das Zehnfache der Kosten für die chemische Reinigung des beschädigten Kleidungsstücks begrenzt sind.</v>
+        <v>Reklamationen müssen innerhalb von 24 Stunden nach der Rückgabe erfolgen.</v>
       </c>
       <c r="C14" t="str">
-        <v>Bitte beachten Sie, dass Ansprüche wegen Verlust oder Beschädigung auf das Zehnfache der Kosten für die chemische Reinigung des beschädigten Kleidungsstücks begrenzt sind.</v>
+        <v>Reklamationen müssen innerhalb von 24 Stunden nach der Rückgabe gemacht werden.</v>
       </c>
       <c r="D14" t="str">
-        <v>No correction needed</v>
+        <v>The translation was modified to replace 'erfolgen' (to take place) with 'gemacht werden' (to be made) to match the original meaning. This change also improves the clarity of the sentence.</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Any Claim should be made within 24hrs from day of return.</v>
+        <v>You are kindly</v>
       </c>
       <c r="B15" t="str">
-        <v>Reklamationen müssen innerhalb von 24 Stunden nach der Rückgabe erfolgen.</v>
+        <v>Bitte informieren Sie uns</v>
       </c>
       <c r="C15" t="str">
-        <v>Reklamationen müssen innerhalb von 24 Stunden nach der Rückgabe erfolgen.</v>
+        <v>Bitte teilen Sie uns</v>
       </c>
       <c r="D15" t="str">
-        <v>No correction needed</v>
+        <v>The translation was modified to replace 'informieren' (inform) with 'teilen' (share) to have a more appropriate and natural wording for the context.</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>You are kindly</v>
+        <v>requested to notify us of any delicate materials or special</v>
       </c>
       <c r="B16" t="str">
-        <v>Bitte informieren Sie uns</v>
+        <v>über empfindliche Materialien oder besondere</v>
       </c>
       <c r="C16" t="str">
-        <v>Bitte informieren Sie uns</v>
+        <v>über empfindliche Materialien oder spezielle</v>
       </c>
       <c r="D16" t="str">
-        <v>No correction needed</v>
+        <v>The translation was modified to replace 'besondere' (special) with 'spezielle' (specific/special) to have a more accurate translation of 'special' in this context.</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>requested to notify us of any delicate materials or special</v>
+        <v>requests.</v>
       </c>
       <c r="B17" t="str">
-        <v>über empfindliche Materialien oder besondere</v>
+        <v>Wünsche.</v>
       </c>
       <c r="C17" t="str">
-        <v>über empfindliche Materialien oder besondere</v>
+        <v>Anfragen.</v>
       </c>
       <c r="D17" t="str">
-        <v>No correction needed</v>
+        <v>The translation was modified to replace 'Wünsche' (wishes) with 'Anfragen' (requests) to have a more appropriate translation for the context. 'Anfragen' implies a formal request, while 'Wünsche' is more like personal wishes.</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>requests.</v>
+        <v>The hotel may refuse to process any of the items.</v>
       </c>
       <c r="B18" t="str">
-        <v>Wünsche.</v>
+        <v>Das Hotel kann sich weigern, eines der Kleidungsstücke zu bearbeiten.</v>
       </c>
       <c r="C18" t="str">
-        <v>Wünsche.</v>
+        <v>Das Hotel behält sich das Recht vor, eines der Kleidungsstücke nicht zu bearbeiten.</v>
       </c>
       <c r="D18" t="str">
-        <v>No correction needed</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>The hotel may refuse to process any of the items.</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Das Hotel kann sich weigern, eines der Kleidungsstücke zu bearbeiten.</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Das Hotel kann sich weigern, eines der Kleidungsstücke zu bearbeiten.</v>
-      </c>
-      <c r="D19" t="str">
-        <v>No correction needed</v>
+        <v>The translation was modified to improve the clarity and accuracy of the sentence. The original translation implies that the hotel refuses to process one of the items, while the modified translation clarifies that the hotel reserves the right not to process one of the items.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D18"/>
   </ignoredErrors>
 </worksheet>
 </file>